--- a/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,468 +512,638 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>75.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>002334</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>002335</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007275</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007276</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004769</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信价值优先混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>040004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>华安宝利配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>001749</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>招商中国机遇股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001208</t>
+          <t>001403</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票A</t>
+          <t>招商国企改革主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010349</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票C</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>009266</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>鹏扬景合六个月持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>002456</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>招商安元灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002456</t>
+          <t>002224</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合A</t>
+          <t>中邮绝对收益策略定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002457</t>
+          <t>005530</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合C</t>
+          <t>汇添富沪深300指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>43.60</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.07</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>009164</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>080001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>长盛成长价值混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009266</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏扬景合六个月持有期混合</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>515500</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>海富通中证长三角领先ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>002457</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>招商安元灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>320020</t>
+          <t>001569</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>诺安策略精选股票</t>
+          <t>泰信国策驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006535</t>
+          <t>510130</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恒生前海恒锦裕利混合A</t>
+          <t>易方达上证中盘ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006536</t>
+          <t>005870</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恒生前海恒锦裕利混合C</t>
+          <t>鹏华沪深300指数增强</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>009165</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>001226</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>中邮稳健添利灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>510130</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>易方达上证中盘ETF</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001226</t>
+          <t>001978</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中邮稳健添利灵活配置混合</t>
+          <t>泰信互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>512270</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安沪深300行业中性低波动ETF</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>080002</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>长盛创新先锋混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>040004</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华安宝利配置混合</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>515500</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海富通中证长三角领先ETF</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>080001</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>长盛成长价值混合</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>74.81</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>080002</t>
+          <t>006535</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合</t>
+          <t>恒生前海恒锦裕利混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2022,25 +2572,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001569</t>
+          <t>006536</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>泰信国策驱动灵活配置混合</t>
+          <t>恒生前海恒锦裕利混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>75.77</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001749</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商中国机遇股票</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001978</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>泰信互联网+主题灵活配置混合</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002224</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中邮绝对收益策略定期开放混合</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>43.93</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>41.82</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>6</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2190,25 +2800,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>005530</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>汇添富沪深300指数增强A</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010556</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>汇添富沪深300指数增强C</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>9</v>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>005870</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鹏华沪深300指数增强</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>7</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>010556</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>汇添富沪深300指数增强C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>8</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2302,25 +2952,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>009164</t>
+          <t>512270</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合A</t>
+          <t>华安沪深300行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009165</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合C</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>6</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3025,4 +3026,4542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9616</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6801</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>51.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005530</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>67.10</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>67.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010556</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7564,4 +7565,2832 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7935</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9791</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6902</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6519</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004607</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信利尚一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>54.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>54.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10393,4 +10394,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10402,7 +10403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10413,17 +10414,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10433,14 +10454,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.5</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -10449,14 +10492,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>118</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.09</v>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10465,14 +10530,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.8</v>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -10481,13 +10568,2353 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>53.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>53.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12813,7 +12814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12824,17 +12825,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12844,14 +12865,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.369999999999999</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -12860,14 +12903,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.5</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -12876,14 +12941,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.09</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1770</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -12892,14 +12979,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>48</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.8</v>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -12908,13 +13017,6122 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6980</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4288</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000312</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安沪深300增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000313</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安沪深300增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005530</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>61.14</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>61.14</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>48.86</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010556</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600919-江苏银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19015,7 +19016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19026,17 +19027,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19046,14 +19067,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>162</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.09</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -19062,14 +19105,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.369999999999999</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -19078,14 +19143,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.5</v>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -19094,14 +19181,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.09</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -19110,14 +19219,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>48</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.8</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -19126,13 +19257,6094 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2297</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9780</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6911</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4901</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3988</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>51.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>35.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000273</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007632</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>62.04</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>62.04</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>014584</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>-0.0104</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.74</v>
       </c>
     </row>
